--- a/report-mathematics.xlsx
+++ b/report-mathematics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28680" windowHeight="12330"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="レポート-応用数学" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>レポート(応用数学）</t>
     <rPh sb="5" eb="7">
@@ -208,6 +208,153 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>ギョウレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-9. 行列式</t>
+    <rPh sb="5" eb="7">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i x jの行列式を求める場合には、i+jが偶数の時は加算、i+jが奇数の時は、減算する</t>
+    <rPh sb="6" eb="8">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>グウスウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>キスウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ゲンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-1. 固有値分解</t>
+    <rPh sb="5" eb="8">
+      <t>コユウチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固有値分解は、行列を対角化するのと同じ。</t>
+    <rPh sb="0" eb="3">
+      <t>コユウチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブンカイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイカク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての行列が、固有値分解できるわけではない。</t>
+    <rPh sb="4" eb="6">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コユウチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3-1. 特異値分解</t>
+    <rPh sb="5" eb="8">
+      <t>トクイチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正方行列でない行列に対し、使用する</t>
+    <rPh sb="0" eb="2">
+      <t>セイホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象行列を</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギョウレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とすることで、正方行列化して、特異値を計算する</t>
+    <rPh sb="7" eb="9">
+      <t>セイホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>トクイチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイサン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -292,8 +439,8 @@
       <xdr:rowOff>167188</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="264560"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
@@ -392,7 +539,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
@@ -470,8 +617,8 @@
       <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1424237" cy="267766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
@@ -507,7 +654,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:acc>
@@ -551,7 +697,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
@@ -626,8 +772,8 @@
       <xdr:rowOff>172202</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1424237" cy="275845"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
@@ -663,7 +809,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -698,7 +843,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
@@ -758,6 +903,202 @@
                 <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
                 <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>405847</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5180</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1217543" y="4533547"/>
+          <a:ext cx="1628572" cy="485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>18052</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>49827</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1199492" cy="267766"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1641443" y="6659349"/>
+              <a:ext cx="1199492" cy="267766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝐴</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑀</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1641443" y="6659349"/>
+              <a:ext cx="1199492" cy="267766"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐴=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑀𝑀^𝑇</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -1055,11 +1396,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1138,6 +1477,51 @@
       </c>
       <c r="E19" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/report-mathematics.xlsx
+++ b/report-mathematics.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>レポート(応用数学）</t>
     <rPh sb="5" eb="7">
@@ -91,30 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1-1. スカラーとベクトルの違い</t>
-    <rPh sb="15" eb="16">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1-2. 行列</t>
-    <rPh sb="5" eb="7">
-      <t>ギョウレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1-5. 固有値と固有ベクトル</t>
-    <rPh sb="5" eb="8">
-      <t>コユウチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>固有ベクトル：</t>
     <rPh sb="0" eb="2">
       <t>コユウ</t>
@@ -196,32 +172,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1-8. 単位行列と逆行列</t>
-    <rPh sb="5" eb="7">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ギョウレツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ギャク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ギョウレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1-9. 行列式</t>
-    <rPh sb="5" eb="7">
-      <t>ギョウレツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>i x jの行列式を求める場合には、i+jが偶数の時は加算、i+jが奇数の時は、減算する</t>
     <rPh sb="6" eb="8">
       <t>ギョウレツ</t>
@@ -256,16 +206,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2-1. 固有値分解</t>
-    <rPh sb="5" eb="8">
-      <t>コユウチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ブンカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>固有値分解は、行列を対角化するのと同じ。</t>
     <rPh sb="0" eb="3">
       <t>コユウチ</t>
@@ -301,16 +241,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3-1. 特異値分解</t>
-    <rPh sb="5" eb="8">
-      <t>トクイチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ブンカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>正方行列でない行列に対し、使用する</t>
     <rPh sb="0" eb="2">
       <t>セイホウ</t>
@@ -355,6 +285,647 @@
     </rPh>
     <rPh sb="19" eb="21">
       <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第2章：確率・統計</t>
+    <rPh sb="4" eb="6">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1章 3-1. 特異値分解</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>トクイチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1章 2-1. 固有値分解</t>
+    <rPh sb="8" eb="11">
+      <t>コユウチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1章 1-9. 行列式</t>
+    <rPh sb="8" eb="10">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1章 1-8. 単位行列と逆行列</t>
+    <rPh sb="8" eb="10">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ギョウレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1章 1-5. 固有値と固有ベクトル</t>
+    <rPh sb="8" eb="11">
+      <t>コユウチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1章 1-2. 行列</t>
+    <rPh sb="8" eb="10">
+      <t>ギョウレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1章 1-1. スカラーとベクトルの違い</t>
+    <rPh sb="18" eb="19">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2章 1-1. 確率</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頻度確率(客観確率)・・・</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キャッカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発生する度合い</t>
+    <rPh sb="0" eb="2">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベイズ確率(主観確率)・・・</t>
+    <rPh sb="3" eb="5">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>信念の度合い</t>
+    <rPh sb="0" eb="2">
+      <t>シンネン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2章 1-2. 条件付き確率</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある事象でX=xが与えられた下で、Y=yとなる確率</t>
+    <rPh sb="2" eb="4">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数式での条件表記が逆になることを注意する</t>
+    <rPh sb="0" eb="2">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2章 1-2. 独立な事象の同時確率</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドクリツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>因果関係はないので、順番は関係なくなる</t>
+    <rPh sb="0" eb="2">
+      <t>インガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2章 2-1. ベイズ則</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件付き確率に対して、成り立つ定理</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウケンツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2章 2-2. 確率変数と確率分布</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率変数・・・</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事象と結び付けられた数値(コインの裏=0,コインの表=1など)</t>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムス</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オモテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確率分布・・・</t>
+    <rPh sb="0" eb="2">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事象の発生する確率の分布(正規分布など)</t>
+    <rPh sb="0" eb="2">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2章 3-1. 期待値</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある試行を永遠に繰り返した時に得られる実現値の平均のこと</t>
+  </si>
+  <si>
+    <t>2章 3-2. 分散と共分散</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンサン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キョウブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散・・・</t>
+    <rPh sb="0" eb="2">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの広がり(各値と期待値の差分を2乗して加算したもの)</t>
+    <rPh sb="4" eb="5">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共分散・・・</t>
+    <rPh sb="0" eb="3">
+      <t>キョウブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２つのデータ系列の傾向の違い</t>
+    <rPh sb="6" eb="8">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正の値・・・似た傾向</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>負の値・・・逆の傾向</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼロ・・・関係性乏しい</t>
+    <rPh sb="5" eb="8">
+      <t>カンケイセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルヌーイ分布</t>
+  </si>
+  <si>
+    <t>𝑥:確率変数</t>
+    <rPh sb="3" eb="5">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>𝜇:確率</t>
+    <rPh sb="3" eb="5">
+      <t>カクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「表か裏か」のように２種類のみの結果しか得られないような試行（ベルヌーイ試行）の結果を0と1で表した分布</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルチヌーイ(カテゴリカル)分布</t>
+    <rPh sb="14" eb="16">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コイントスのイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイコロを転がすイメージ</t>
+    <rPh sb="5" eb="6">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルヌーイ分布が多次元化したもの</t>
+    <rPh sb="5" eb="7">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>タジゲン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二項分布</t>
+    <rPh sb="0" eb="2">
+      <t>ニコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベルヌーイ分布の多試行(N回実施した場合)版</t>
+    <rPh sb="5" eb="7">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2章 4-1,2. 様々な確率分布</t>
+    <rPh sb="1" eb="2">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多項分布</t>
+    <rPh sb="0" eb="2">
+      <t>タコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリカル分布の多試行版</t>
+    <rPh sb="6" eb="8">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガウス分布</t>
+    <rPh sb="3" eb="5">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釣鐘型の連続分布。正規分布のこと。</t>
+    <rPh sb="0" eb="2">
+      <t>ツリガネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多試行</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>多次元</t>
+    <rPh sb="0" eb="3">
+      <t>タジゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -363,7 +934,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +954,27 @@
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -408,11 +1000,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -956,8 +1560,8 @@
       <xdr:rowOff>49827</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1199492" cy="267766"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
@@ -993,6 +1597,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1050,7 +1655,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
@@ -1106,6 +1711,2513 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8283</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2484</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4373218" cy="533544"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1225826" y="8997397"/>
+              <a:ext cx="4373218" cy="533544"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑃</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑌</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑦</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>|</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑋</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑥</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑌</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>=</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑦</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>=</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>=</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1225826" y="8997397"/>
+              <a:ext cx="4373218" cy="533544"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑃(𝑌=𝑦|𝑋=𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑃(𝑌=𝑦,𝑋=𝑥))/(𝑃(𝑋=𝑥))</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>60462</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4373218" cy="280205"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1217544" y="10446853"/>
+              <a:ext cx="4373218" cy="280205"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑃</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑌</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑦</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>,</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑋</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑥</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>)=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑃</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>=</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑃</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑌</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>=</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑦</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑃</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑋</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑥</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>,</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑌</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑦</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1217544" y="10446853"/>
+              <a:ext cx="4373218" cy="280205"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑃(𝑌=𝑦,𝑋=𝑥)=𝑃(𝑋=𝑥)𝑃(𝑌=𝑦)=𝑃(𝑋=𝑥,𝑌=𝑦)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1805610" cy="490968"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1648238" y="11206370"/>
+              <a:ext cx="1805610" cy="490968"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑃</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝐵</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>|</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝐴</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>𝐴</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:e>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>𝐵</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1648238" y="11206370"/>
+              <a:ext cx="1805610" cy="490968"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑃(𝐵|𝐴)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑃(𝐴│𝐵)𝑃(𝐵))/(𝑃(𝐴))</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1954695" cy="283283"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2410239" y="15273131"/>
+              <a:ext cx="1954695" cy="283283"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝐵𝑒𝑟𝑛</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>(1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝜇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2410239" y="15273131"/>
+              <a:ext cx="1954695" cy="283283"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐵𝑒𝑟𝑛(𝑥│</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>^𝑥 〖(1−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>)〗^(1−𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24847</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3480353" cy="377347"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2482297" y="16365607"/>
+              <a:ext cx="3480353" cy="377347"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝐵𝑖𝑛</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑚</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝜇</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>,</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑁</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>𝑁</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>!</m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>𝑚</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>!</m:t>
+                          </m:r>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝑁</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝑚</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:d>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>!</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝜇</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑚</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>(1−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝜇</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑁</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑚</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2482297" y="16365607"/>
+              <a:ext cx="3480353" cy="377347"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐵𝑖𝑛(𝑚│</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>,𝑁)=〖𝑁!/𝑚!(𝑁−𝑚)!</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t> 𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>〗^𝑚 〖(1−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>)〗^(𝑁−𝑚)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>148827</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339398</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="13191"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2613421" y="17716500"/>
+          <a:ext cx="1422868" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53579</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220266</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>175312</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect b="14546"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2518173" y="18669001"/>
+          <a:ext cx="3042046" cy="580124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3135085" cy="468141"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2454728" y="19599729"/>
+              <a:ext cx="3135085" cy="468141"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑁</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑥</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>;</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝜇</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>,</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝜎</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>)=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>1</m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝜎</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <m:rPr>
+                              <m:sty m:val="p"/>
+                            </m:rPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>exp</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>⁡(−</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                              <m:sSup>
+                                <m:sSupPr>
+                                  <m:ctrlPr>
+                                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSupPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>𝜎</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sup>
+                                  <m:r>
+                                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                </m:sup>
+                              </m:sSup>
+                            </m:den>
+                          </m:f>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>(</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝜇</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>)</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2454728" y="19599729"/>
+              <a:ext cx="3135085" cy="468141"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑁(𝑥;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>^2)=√(1/(2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜋𝜎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>^2 )) 〖〖exp⁡(−1/(2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>^2 ) 〖(𝑥−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>)〗^2〗^ )〗^ </a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>407275</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1629103" y="19956517"/>
+          <a:ext cx="1221828" cy="394138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ベルヌーイ分布</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3665483" y="19956517"/>
+          <a:ext cx="1221828" cy="394138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>カテゴリカル分布</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2850931" y="20153586"/>
+          <a:ext cx="814552" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>407275</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1629103" y="20744793"/>
+          <a:ext cx="1221828" cy="394138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>二項分布</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2850931" y="20153586"/>
+          <a:ext cx="814552" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3665483" y="20744793"/>
+          <a:ext cx="1221828" cy="394138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>多項分布</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203638</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203638</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="24" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2240017" y="20350655"/>
+          <a:ext cx="0" cy="394138"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203638</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203638</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="28" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276397" y="20350655"/>
+          <a:ext cx="0" cy="394138"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1396,9 +4508,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1414,7 +4528,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1424,7 +4538,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1439,98 +4553,320 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
         <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>62</v>
+      </c>
+      <c r="G81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>65</v>
+      </c>
+      <c r="G92" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>67</v>
+      </c>
+      <c r="G97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="J101" s="2"/>
+    </row>
+    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H102" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I102" s="4"/>
+    </row>
+    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E104" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H106" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I106" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H106:I106"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <webPublishItems count="1">
-    <webPublishItem id="22726" divId="report-応用数学_22726" sourceType="sheet" destinationFile="D:\takenakat1\DeepLearning\99_Report_StudyAI\Report_StudyAI\report-mathematics.htm"/>
+    <webPublishItem id="4023" divId="report-mathematics_4023" sourceType="sheet" destinationFile="D:\takenakat1\DeepLearning\99_Report_StudyAI\Report_StudyAI\Page.mht"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/report-mathematics.xlsx
+++ b/report-mathematics.xlsx
@@ -1010,14 +1010,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1719,8 +1719,8 @@
       <xdr:rowOff>2484</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4373218" cy="533544"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
@@ -1946,7 +1946,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
@@ -2024,8 +2024,8 @@
       <xdr:rowOff>60462</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4373218" cy="280205"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
@@ -2270,7 +2270,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
@@ -2332,8 +2332,8 @@
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1805610" cy="490968"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
@@ -2518,7 +2518,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
@@ -2596,8 +2596,8 @@
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1954695" cy="283283"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
@@ -2633,6 +2633,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2752,7 +2753,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
@@ -2846,8 +2847,8 @@
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3480353" cy="377347"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
@@ -3091,7 +3092,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
@@ -3263,8 +3264,8 @@
       <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3135085" cy="468141"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
@@ -3607,7 +3608,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
@@ -4511,7 +4512,7 @@
   <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+      <selection activeCell="A61" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4837,24 +4838,24 @@
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H102" s="3" t="s">
+      <c r="H102" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I102" s="4"/>
+      <c r="I102" s="5"/>
     </row>
     <row r="104" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J104" s="5" t="s">
+      <c r="J104" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="106" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H106" s="3" t="s">
+      <c r="H106" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I106" s="4"/>
+      <c r="I106" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4866,7 +4867,7 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <webPublishItems count="1">
-    <webPublishItem id="4023" divId="report-mathematics_4023" sourceType="sheet" destinationFile="D:\takenakat1\DeepLearning\99_Report_StudyAI\Report_StudyAI\Page.mht"/>
+    <webPublishItem id="11031" divId="report-mathematics_11031" sourceType="sheet" destinationFile="D:\takenakat1\DeepLearning\99_Report_StudyAI\Report_StudyAI\report-mathematics.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/report-mathematics.xlsx
+++ b/report-mathematics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20370" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="レポート-応用数学" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>レポート(応用数学）</t>
     <rPh sb="5" eb="7">
@@ -926,6 +926,376 @@
     <t>多次元</t>
     <rPh sb="0" eb="3">
       <t>タジゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第3章：情報理論</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リロン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3章 1-1. 自己情報量</t>
+    <rPh sb="8" eb="10">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対数の底がネイピアのe→単位はナット(nat)</t>
+    <rPh sb="0" eb="2">
+      <t>タイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対数の底が2→単位はビット(bit)</t>
+    <rPh sb="0" eb="2">
+      <t>タイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W:Pの逆数、事象の数</t>
+    <rPh sb="4" eb="6">
+      <t>ギャクスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>めずらしいほど、Wは大きくなる</t>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>logを使うことでデータの扱いが容易になる(掛け算の事象を足し算で表せる、逆数をマイナスで表せる)</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アラワ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ギャクスウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3章 1-2. シャノンエントロピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対数の底にeを使うことで、微分・積分が容易になる</t>
+    <rPh sb="0" eb="2">
+      <t>タイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ビブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セキブン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3章 2-1. カルバック・ライブラー ダイバージェンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3章 2-2. 公差エントロピー</t>
+    <rPh sb="8" eb="10">
+      <t>コウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報量=エントロピーのこと</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己情報量の期待値、平均値</t>
+    <rPh sb="0" eb="2">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人間は、元々の情報に対しての増減で認識している</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モトモト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゾウゲン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ事象、確率変数における確率分布P,Qの違いを表す</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ確率分布では、"0"になる</t>
+    <rPh sb="0" eb="1">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ブンプ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に0を含む正の値をとり、似ていないほど大きな値をとる</t>
+    <rPh sb="0" eb="1">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正確には、距離ではないので、Pから見る場合とQから見る場合で値が違う</t>
+    <rPh sb="0" eb="2">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KLダイバージェンスの一部を切り出したもの</t>
+    <rPh sb="11" eb="13">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Qについての自己情報量をPの分布で平均している</t>
+    <rPh sb="6" eb="8">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事前に考えていた分布に対しての現実の分布がどれだけ適合していたかが分かる</t>
+    <rPh sb="0" eb="2">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンジツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テキゴウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P,Qが違いが少ない→公差エントロピーの値が小さい</t>
+    <rPh sb="4" eb="5">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウサ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -934,7 +1304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,6 +1347,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1000,7 +1378,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1018,6 +1396,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,7 +1420,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19552</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>167188</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="264560"/>
@@ -1217,7 +1598,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>380499</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>157161</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1424237" cy="267766"/>
@@ -1372,7 +1753,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>400552</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>172202</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1424237" cy="275845"/>
@@ -1518,14 +1899,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>405847</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>110634</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>5180</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1556,7 +1937,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>18052</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>49827</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1199492" cy="267766"/>
@@ -1715,7 +2096,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>2484</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4373218" cy="533544"/>
@@ -2020,7 +2401,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>60462</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4373218" cy="280205"/>
@@ -2328,7 +2709,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1805610" cy="490968"/>
@@ -2592,7 +2973,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1954695" cy="283283"/>
@@ -2843,7 +3224,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>24847</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>115957</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3480353" cy="377347"/>
@@ -3186,14 +3567,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>148827</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>59531</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>339398</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3223,13 +3604,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>53579</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>220266</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>175312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3260,7 +3641,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>5442</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3135085" cy="468141"/>
@@ -3726,13 +4107,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>407275</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3798,13 +4179,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3870,13 +4251,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3923,13 +4304,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>407275</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3995,13 +4376,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4045,13 +4426,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4117,13 +4498,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>203638</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>203638</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4170,13 +4551,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>203638</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>203638</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4219,6 +4600,1311 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2609022" cy="300788"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1234108" y="23390087"/>
+              <a:ext cx="2609022" cy="300788"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝐼</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=−</m:t>
+                  </m:r>
+                  <m:func>
+                    <m:funcPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:funcPr>
+                    <m:fName>
+                      <m:r>
+                        <m:rPr>
+                          <m:sty m:val="p"/>
+                        </m:rPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>log</m:t>
+                      </m:r>
+                    </m:fName>
+                    <m:e>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>𝑃</m:t>
+                          </m:r>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:d>
+                        </m:e>
+                      </m:d>
+                    </m:e>
+                  </m:func>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>log</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>⁡(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑊</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1234108" y="23390087"/>
+              <a:ext cx="2609022" cy="300788"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐼(𝑥)=−log⁡(𝑃(𝑥))=log⁡(𝑊(𝑥))</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>404190</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>39757</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4441136" cy="502253"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1215886" y="24738496"/>
+              <a:ext cx="4441136" cy="502253"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝐻</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝐸</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝐼</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>= −</m:t>
+                    </m:r>
+                    <m:nary>
+                      <m:naryPr>
+                        <m:chr m:val="∑"/>
+                        <m:subHide m:val="on"/>
+                        <m:supHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:naryPr>
+                      <m:sub/>
+                      <m:sup/>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>log</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>⁡(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:nary>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1215886" y="24738496"/>
+              <a:ext cx="4441136" cy="502253"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐻(𝑥)=𝐸((𝐼(𝑥))= −∑▒〖(𝑃(𝑥)log⁡(𝑃(𝑥))〗</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>404190</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>14909</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4441136" cy="361959"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1215886" y="25707561"/>
+              <a:ext cx="4441136" cy="361959"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝐾𝐿</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>||</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑄</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝐸</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑋</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>~</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:d>
+                    <m:dPr>
+                      <m:begChr m:val="["/>
+                      <m:endChr m:val="]"/>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑙𝑜𝑔</m:t>
+                      </m:r>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>𝑃</m:t>
+                          </m:r>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:d>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math"/>
+                            </a:rPr>
+                            <m:t>𝑄</m:t>
+                          </m:r>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:d>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝐸</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>~</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑃</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>[</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑙𝑜𝑔𝑃</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>−</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>𝑙𝑜𝑔𝑄</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math"/>
+                    </a:rPr>
+                    <m:t>]</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1215886" y="25707561"/>
+              <a:ext cx="4441136" cy="361959"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐷_𝐾𝐿 (𝑃||𝑄)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐸_(𝑋~𝑃) [𝑙𝑜𝑔 𝑃(𝑥)/𝑄(𝑥) ]=𝐸_(𝑥~𝑃) [𝑙𝑜𝑔𝑃(𝑥)−𝑙𝑜𝑔𝑄(𝑥)]</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6626</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>6627</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4441136" cy="436786"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1224169" y="27687105"/>
+              <a:ext cx="4441136" cy="436786"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝐻</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>P</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝐻</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝐾𝐿</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>||</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝐻</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑄</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=−</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝐸</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>~</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑃</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑙𝑜𝑔𝑄</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>)</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1224169" y="27687105"/>
+              <a:ext cx="4441136" cy="436786"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐻(P,𝑄)=𝐻(𝑃)+𝐷_𝐾𝐿 ((𝑃||𝑄)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝐻(𝑃,𝑄)=−𝐸_(𝑥~𝑃) 𝑙𝑜𝑔𝑄(𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4509,10 +6195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A61" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4523,351 +6209,460 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
         <v>30</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>40</v>
-      </c>
-      <c r="G61" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>42</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
         <v>49</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F70" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G70" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D75" t="s">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
         <v>54</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G76" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="G76" t="s">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="L78" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L80" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D81" t="s">
+    <row r="82" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>62</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
+    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G86" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="87" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="92" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
+    <row r="93" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
         <v>65</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G93" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
         <v>67</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G98" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="J101" s="2"/>
-    </row>
-    <row r="102" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H102" s="4" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H103" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I102" s="5"/>
-    </row>
-    <row r="104" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="E104" s="3" t="s">
+      <c r="I103" s="5"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E105" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="106" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H106" s="4" t="s">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H107" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I106" s="5"/>
+      <c r="I107" s="5"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>72</v>
+      </c>
+      <c r="F113" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K119" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>78</v>
+      </c>
+      <c r="G124" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H107:I107"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <webPublishItems count="1">
-    <webPublishItem id="11031" divId="report-mathematics_11031" sourceType="sheet" destinationFile="D:\takenakat1\DeepLearning\99_Report_StudyAI\Report_StudyAI\report-mathematics.htm"/>
+    <webPublishItem id="11031" divId="report-mathematics_11031" sourceType="sheet" destinationFile="D:\takenakat1\DeepLearning\99_Report_StudyAI\Report_StudyAI\report-mathematics.htm" title="応用数学レポート"/>
   </webPublishItems>
 </worksheet>
 </file>